--- a/assets/excel/server_data1.xlsx
+++ b/assets/excel/server_data1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\backup-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>name</t>
   </si>
@@ -59,25 +59,49 @@
     <t>localhost</t>
   </si>
   <si>
-    <t>linux001</t>
-  </si>
-  <si>
     <t>Testing server</t>
   </si>
   <si>
     <t>Linux 002, server name localhost</t>
   </si>
   <si>
-    <t>John Marker</t>
-  </si>
-  <si>
-    <t>Steve</t>
-  </si>
-  <si>
-    <t>Linux 005</t>
-  </si>
-  <si>
     <t>Linux 006</t>
+  </si>
+  <si>
+    <t>Linux 004</t>
+  </si>
+  <si>
+    <t>Alan Walker</t>
+  </si>
+  <si>
+    <t>operatingSystem</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>localhostttttt</t>
+  </si>
+  <si>
+    <t>Linux 0032</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>134.6.6.99</t>
+  </si>
+  <si>
+    <t>kkljhjh</t>
+  </si>
+  <si>
+    <t>linux006</t>
   </si>
 </sst>
 </file>
@@ -395,92 +419,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="9" max="9" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <v>123</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>123</v>
-      </c>
-      <c r="G2">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4">
         <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
